--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-15.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-15.xlsx
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
   </si>
   <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
@@ -4098,13 +4101,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4124,13 +4127,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4150,13 +4153,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4176,13 +4179,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4202,51 +4205,77 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="K124" s="10">
-        <v>7648.1000000000004</v>
-      </c>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="11">
+    <row r="124" ht="24.75" customHeight="1">
+      <c r="A124" s="6">
+        <v>121</v>
+      </c>
+      <c t="s" r="B124" s="7">
         <v>169</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c t="s" r="F125" s="12">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c t="s" r="H124" s="8">
+        <v>67</v>
+      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="9">
+        <v>30</v>
+      </c>
+      <c r="M124" s="9"/>
+      <c t="s" r="N124" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" ht="26.25" customHeight="1">
+      <c r="K125" s="10">
+        <v>7656.1000000000004</v>
+      </c>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="11">
         <v>170</v>
       </c>
-      <c r="G125" s="12"/>
-      <c r="H125" s="13"/>
-      <c t="s" r="I125" s="14">
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c t="s" r="F126" s="12">
         <v>171</v>
       </c>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="14"/>
-      <c r="M125" s="14"/>
-      <c r="N125" s="14"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="13"/>
+      <c t="s" r="I126" s="14">
+        <v>172</v>
+      </c>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="371">
+  <mergeCells count="374">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4614,10 +4643,13 @@
     <mergeCell ref="B123:G123"/>
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
-    <mergeCell ref="K124:N124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="I125:N125"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="K125:N125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="I126:N126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
